--- a/Datasets/Joel_Soroña_extremo_2022-11-15.xlsx
+++ b/Datasets/Joel_Soroña_extremo_2022-11-15.xlsx
@@ -8,38 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CE9E5-3111-4385-B099-B697E5C6521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8560FA47-658A-4541-B18A-4CBAAC5A41C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Search results (101)" sheetId="1" r:id="rId1"/>
+    <sheet name="Search results (118)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Jugador</t>
   </si>
   <si>
-    <t>Equipo</t>
-  </si>
-  <si>
-    <t>Posición específica</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Valor de mercado</t>
-  </si>
-  <si>
-    <t>Vencimiento contrato</t>
-  </si>
-  <si>
     <t>Partidos jugados</t>
   </si>
   <si>
@@ -49,49 +34,58 @@
     <t>Goles</t>
   </si>
   <si>
-    <t>xG</t>
-  </si>
-  <si>
-    <t>País de nacimiento</t>
-  </si>
-  <si>
-    <t>Pasaporte</t>
-  </si>
-  <si>
-    <t>Pie</t>
-  </si>
-  <si>
-    <t>Altura</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>En préstamo</t>
-  </si>
-  <si>
-    <t>derecho</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>2024-06-30</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>United States, Argentina</t>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Duelos defensivos ganados, %</t>
+  </si>
+  <si>
+    <t>Posesión conquistada después de una interceptación</t>
+  </si>
+  <si>
+    <t>xG/90</t>
+  </si>
+  <si>
+    <t>Tiros a la portería, %</t>
+  </si>
+  <si>
+    <t>Precisión centros, %</t>
+  </si>
+  <si>
+    <t>Regates realizados, %</t>
+  </si>
+  <si>
+    <t>Aceleraciones/90</t>
+  </si>
+  <si>
+    <t>Pases/90</t>
+  </si>
+  <si>
+    <t>Precisión pases, %</t>
+  </si>
+  <si>
+    <t>Precisión pases hacia adelante, %</t>
+  </si>
+  <si>
+    <t>xA/90</t>
+  </si>
+  <si>
+    <t>Second assists/90</t>
+  </si>
+  <si>
+    <t>Precisión desmarques, %</t>
+  </si>
+  <si>
+    <t>Pases en el último tercio/90</t>
+  </si>
+  <si>
+    <t>Precisión pases en el último tercio, %</t>
+  </si>
+  <si>
+    <t>Ataque en profundidad/90</t>
   </si>
   <si>
     <t>J. Soñora</t>
-  </si>
-  <si>
-    <t>Marítimo</t>
-  </si>
-  <si>
-    <t>AMF</t>
   </si>
 </sst>
 </file>
@@ -448,32 +442,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,55 +520,85 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1">
-        <v>825000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1019</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1">
-        <v>176</v>
-      </c>
-      <c r="O2" s="1">
-        <v>74</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>1198</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>52.27</v>
+      </c>
+      <c r="G2">
+        <v>2.35</v>
+      </c>
+      <c r="H2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I2">
+        <v>31.82</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>52.83</v>
+      </c>
+      <c r="L2">
+        <v>1.05</v>
+      </c>
+      <c r="M2">
+        <v>35.31</v>
+      </c>
+      <c r="N2">
+        <v>82.77</v>
+      </c>
+      <c r="O2">
+        <v>71.09</v>
+      </c>
+      <c r="P2">
+        <v>0.19</v>
+      </c>
+      <c r="Q2">
+        <v>0.08</v>
+      </c>
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>4.96</v>
+      </c>
+      <c r="T2">
+        <v>72.73</v>
+      </c>
+      <c r="U2">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
